--- a/data/boba-database.xlsx
+++ b/data/boba-database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Desktop\thebubbleentendre\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22DA981-56F9-45AE-BF0E-0999981324B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C8B3A7-566C-4536-A78C-7FFC2DAC41E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{53643CB9-6258-4A12-BEFD-F5F61D7A6B09}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{53643CB9-6258-4A12-BEFD-F5F61D7A6B09}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
   <si>
     <t>loc_index</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>IL</t>
+  </si>
+  <si>
+    <t>Purple Taro Milk Tea</t>
   </si>
 </sst>
 </file>
@@ -506,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD63C328-6076-4DFB-BC51-AF5026B41146}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,10 +610,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4A5A1A-BF37-4CF3-A449-41F5A2E2F795}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,6 +952,38 @@
         <v>5.5</v>
       </c>
     </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44732</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>7.5</v>
+      </c>
+      <c r="H10">
+        <v>7.5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>6.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
